--- a/User/Protocol/端口及协议自定义配置V2.0.xlsx
+++ b/User/Protocol/端口及协议自定义配置V2.0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="139">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -659,6 +659,7 @@
                 "ni": 0,
                 "mi": 3640,
                 "mt": 0,
+                "nt": 0,
                 "dt": 1,
                 "fc": 3,
                 "a": 97,
@@ -674,6 +675,7 @@
                 "ni": 1,
                 "mi": 3641,
                 "mt": 0,
+                "nt": 0,
                 "dt": 1,
                 "fc": 3,
                 "a": 98,
@@ -689,6 +691,7 @@
                 "ni": 2,
                 "mi": 3642,
                 "mt": 0,
+                "nt": 0,
                 "dt": 1,
                 "fc": 3,
                 "a": 99,
@@ -733,6 +736,7 @@
                 "ni": 0,
                 "mi": 14600,
                 "mt": 1,
+                "nt": 0,
                 "dt": 4,
                 "fi": 403701760,
                 "fb": 0,
@@ -748,6 +752,7 @@
                 "ni": 1,
                 "mi": 14601,
                 "mt": 1,
+                "nt": 0,
                 "dt": 4,
                 "fi": 403701760,
                 "fb": 2,
@@ -763,6 +768,7 @@
                 "ni": 2,
                 "mi": 14602,
                 "mt": 1,
+                "nt": 0,
                 "dt": 4,
                 "fi": 403701760,
                 "fb": 4,
@@ -776,6 +782,14 @@
             }
         ]
     }
+}</t>
+  </si>
+  <si>
+    <t>{
+    "fault_action_L1": 0,
+    "fault_action_L2": 0,
+    "fault_action_L3": 0,
+    "fault_action_L4": 0
 }</t>
   </si>
   <si>
@@ -1954,8 +1968,8 @@
   <sheetPr/>
   <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="B8" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -3031,8 +3045,8 @@
   <sheetPr/>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3966,8 +3980,8 @@
   <sheetPr/>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4628,7 +4642,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -4650,7 +4664,9 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>130</v>
+      </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
@@ -4710,7 +4726,7 @@
     <row r="4" ht="67.5" spans="1:15">
       <c r="A4" s="7"/>
       <c r="B4" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -4718,7 +4734,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
@@ -4732,7 +4748,7 @@
     <row r="5" ht="67.5" spans="1:15">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -4740,7 +4756,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
@@ -4754,7 +4770,7 @@
     <row r="6" ht="67.5" spans="1:15">
       <c r="A6" s="7"/>
       <c r="B6" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -4762,7 +4778,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -4776,7 +4792,7 @@
     <row r="7" ht="67.5" spans="1:15">
       <c r="A7" s="7"/>
       <c r="B7" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
@@ -4784,7 +4800,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
